--- a/public/files/FileMauThemNganh.xlsx
+++ b/public/files/FileMauThemNganh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+  <si>
+    <t>STT</t>
+  </si>
   <si>
     <t>Mã Ngành</t>
   </si>
@@ -32,41 +35,62 @@
     <t>Tên Ngành</t>
   </si>
   <si>
+    <t>Tổ Hợp Môn</t>
+  </si>
+  <si>
     <t>Chỉ Tiêu</t>
   </si>
   <si>
     <t>Bậc Học</t>
   </si>
   <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Quản Lý Môi Trường</t>
-  </si>
-  <si>
     <t>DH</t>
   </si>
   <si>
+    <t>Đại Học</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Cao Đẳng</t>
+  </si>
+  <si>
+    <t>Tên Chuyên Ngành</t>
+  </si>
+  <si>
+    <t>Khoa Học Cây Trồng</t>
+  </si>
+  <si>
+    <t>Công Nghệ Gống Cây Trồng</t>
+  </si>
+  <si>
+    <t>A02,B00,D07,D08</t>
+  </si>
+  <si>
+    <t>Bảo vệ thực vật</t>
+  </si>
+  <si>
+    <t>B00,D07,D08</t>
+  </si>
+  <si>
+    <t>Thú y</t>
+  </si>
+  <si>
+    <t>Dược thú y</t>
+  </si>
+  <si>
     <t>Điểm Chuẩn</t>
   </si>
   <si>
     <t>Chú Thích</t>
-  </si>
-  <si>
-    <t>Đại Học</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>Cao Đẳng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +99,27 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,9 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -381,79 +422,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="2">
+        <v>7620110</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2">
+        <v>160</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4">
+        <v>7620112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>160</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="B5" s="2">
+        <v>7640101</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2">
+        <v>160</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>759872</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/files/FileMauThemNganh.xlsx
+++ b/public/files/FileMauThemNganh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Dược thú y</t>
-  </si>
-  <si>
-    <t>Điểm Chuẩn</t>
   </si>
   <si>
     <t>Chú Thích</t>
@@ -422,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,10 +431,9 @@
     <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,11 +455,8 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -485,9 +478,8 @@
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -497,13 +489,12 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -522,14 +513,14 @@
       <c r="G4" t="s">
         <v>6</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="I4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -551,15 +542,14 @@
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="I5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -569,11 +559,10 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
